--- a/50item_tests/heuristic_比較.xlsx
+++ b/50item_tests/heuristic_比較.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rard6\Documents\修士\実験\50item_tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC43AD70-8DE4-4704-BB97-8C6332C5DE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8488F8C2-AE00-4339-B623-562B2F5E4EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24975" yWindow="420" windowWidth="14340" windowHeight="15060" xr2:uid="{F07C1F4F-910B-4B54-AE56-8C849DAB1D49}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F07C1F4F-910B-4B54-AE56-8C849DAB1D49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>山登り</t>
     <rPh sb="0" eb="2">
@@ -80,6 +80,33 @@
   </si>
   <si>
     <t>testcase4</t>
+  </si>
+  <si>
+    <t>新＊焼きなまし改</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行時間</t>
+    <rPh sb="0" eb="4">
+      <t>ジッコウジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -111,7 +138,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -187,13 +214,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -209,22 +251,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -541,338 +586,467 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D6ADCE-AC31-4417-8914-898B1014787C}">
-  <dimension ref="B2:F22"/>
+  <dimension ref="B2:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B2" sqref="B2:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="6" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>3</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>86.518699999999995</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>85.735900000000001</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>84.899299999999997</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B4" s="2"/>
-      <c r="C4" s="7">
+      <c r="G3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B4" s="10"/>
+      <c r="C4" s="2">
         <v>4</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="2">
         <v>58.198099999999997</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="2">
         <v>52.700699999999998</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <v>50.995899999999999</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B5" s="2"/>
-      <c r="C5" s="7">
+      <c r="G4" s="6">
+        <v>50.995899999999999</v>
+      </c>
+      <c r="H4" s="6">
+        <v>63.84</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B5" s="10"/>
+      <c r="C5" s="2">
         <v>5</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="2">
         <v>40.316499999999998</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="2">
         <v>36.494399999999999</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <v>32.995699999999999</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B6" s="2"/>
-      <c r="C6" s="7">
+      <c r="G5" s="6">
+        <v>32.995699999999999</v>
+      </c>
+      <c r="H5" s="6">
+        <v>9.7579999999999991</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B6" s="10"/>
+      <c r="C6" s="2">
         <v>6</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="2">
         <v>31.831600000000002</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="2">
         <v>27.8491</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <v>27.568100000000001</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B7" s="3"/>
-      <c r="C7" s="9">
+      <c r="G6" s="6">
+        <v>27.568100000000001</v>
+      </c>
+      <c r="H6" s="6">
+        <v>50.723999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B7" s="11"/>
+      <c r="C7" s="3">
         <v>7</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="3">
         <v>25.988199999999999</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="3">
         <v>24.099499999999999</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="7">
         <v>22.372599999999998</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
+      <c r="G7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>3</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>135.85599999999999</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>134.666</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>134.47999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B9" s="2"/>
-      <c r="C9" s="7">
+      <c r="G8" s="5">
+        <v>134.27500000000001</v>
+      </c>
+      <c r="H8" s="5">
+        <v>63.337000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="10"/>
+      <c r="C9" s="2">
         <v>4</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="2">
         <v>89.908900000000003</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="2">
         <v>83.001199999999997</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <v>79.612099999999998</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="2"/>
-      <c r="C10" s="7">
+      <c r="G9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="10"/>
+      <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="2">
         <v>60.496200000000002</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="2">
         <v>51.225000000000001</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <v>49.9818</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="2"/>
-      <c r="C11" s="7">
+      <c r="G10" s="6">
+        <v>49.9818</v>
+      </c>
+      <c r="H10" s="6">
+        <v>56.569000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B11" s="10"/>
+      <c r="C11" s="2">
         <v>6</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="2">
         <v>43.545999999999999</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="2">
         <v>36.496200000000002</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <v>35.003100000000003</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B12" s="3"/>
-      <c r="C12" s="9">
+      <c r="G11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B12" s="11"/>
+      <c r="C12" s="3">
         <v>7</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="3">
         <v>32.652700000000003</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="3">
         <v>28.1266</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="7">
         <v>26.763200000000001</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="4" t="s">
+      <c r="G12" s="7">
+        <v>26.763200000000001</v>
+      </c>
+      <c r="H12" s="7">
+        <v>43.139000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>3</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>103.65600000000001</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>92.726299999999995</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>89.784099999999995</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B14" s="2"/>
-      <c r="C14" s="7">
+      <c r="G13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B14" s="10"/>
+      <c r="C14" s="2">
         <v>4</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="2">
         <v>38.753100000000003</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="2">
         <v>35.5837</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="6">
         <v>33.808799999999998</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B15" s="2"/>
-      <c r="C15" s="7">
+      <c r="G14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B15" s="10"/>
+      <c r="C15" s="2">
         <v>5</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="2">
         <v>17.352699999999999</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="2">
         <v>15.7987</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="6">
         <v>15.0924</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B16" s="2"/>
-      <c r="C16" s="7">
+      <c r="G15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B16" s="10"/>
+      <c r="C16" s="2">
         <v>6</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="2">
         <v>13.368399999999999</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="2">
         <v>13.368399999999999</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="6">
         <v>13.368399999999999</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B17" s="3"/>
-      <c r="C17" s="9">
+      <c r="G16" s="6">
+        <v>13.368399999999999</v>
+      </c>
+      <c r="H16" s="6">
+        <v>46.749000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B17" s="11"/>
+      <c r="C17" s="3">
         <v>7</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="3">
         <v>13.368399999999999</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="3">
         <v>13.368399999999999</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="7">
         <v>13.368399999999999</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B18" s="2" t="s">
+      <c r="G17" s="7">
+        <v>13.368399999999999</v>
+      </c>
+      <c r="H17" s="7">
+        <v>36.625999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="2">
         <v>3</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="2">
         <v>589.96400000000006</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="2">
         <v>589.43299999999999</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="6">
         <v>589.44299999999998</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B19" s="2"/>
-      <c r="C19" s="7">
+      <c r="G18" s="6">
+        <v>587.84199999999998</v>
+      </c>
+      <c r="H18" s="6">
+        <v>63.055999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B19" s="10"/>
+      <c r="C19" s="2">
         <v>4</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="2">
         <v>427.54300000000001</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="2">
         <v>424.34300000000002</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="6">
         <v>423.45100000000002</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B20" s="2"/>
-      <c r="C20" s="7">
+      <c r="G19" s="6">
+        <v>423.38099999999997</v>
+      </c>
+      <c r="H19" s="6">
+        <v>18.462</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="10"/>
+      <c r="C20" s="2">
         <v>5</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="2">
         <v>335.02199999999999</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="2">
         <v>332.32499999999999</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="6">
         <v>328.34500000000003</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B21" s="2"/>
-      <c r="C21" s="7">
+      <c r="G20" s="6">
+        <v>327.553</v>
+      </c>
+      <c r="H20" s="6">
+        <v>63.07</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21" s="10"/>
+      <c r="C21" s="2">
         <v>6</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="2">
         <v>275.81299999999999</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="2">
         <v>275.56799999999998</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="6">
         <v>267.55700000000002</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B22" s="3"/>
-      <c r="C22" s="9">
+      <c r="G21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="11"/>
+      <c r="C22" s="3">
         <v>7</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="3">
         <v>242.63</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="3">
         <v>237.767</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="7">
         <v>231.965</v>
+      </c>
+      <c r="G22" s="7">
+        <v>228.613</v>
+      </c>
+      <c r="H22" s="7">
+        <v>28.718</v>
       </c>
     </row>
   </sheetData>
